--- a/util/test_data.xlsx
+++ b/util/test_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -77,6 +77,14 @@
   </si>
   <si>
     <t>信息查询：袁勇，用户ID：312507</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束状态：超时结束，开始时间：2020-10-13 00:00:00,2020-10-14 00:00:00，用户类型：非员工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,16 +415,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="64.75" customWidth="1"/>
+    <col min="5" max="5" width="88.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -537,6 +545,26 @@
       </c>
       <c r="F6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/util/test_data.xlsx
+++ b/util/test_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -85,6 +85,17 @@
   </si>
   <si>
     <t>结束状态：超时结束，开始时间：2020-10-13 00:00:00,2020-10-14 00:00:00，用户类型：非员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名：赵强，发起时间：2020-07-10 00:00:00,2020-07-17 00:00:00</t>
+  </si>
+  <si>
+    <t>用户姓名：马平，发起时间：2021-01-09 00:00:00,2021-01-15 23:59:59</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,16 +426,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="88.625" customWidth="1"/>
+    <col min="6" max="6" width="64.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -565,6 +577,26 @@
       </c>
       <c r="F7">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/util/test_data.xlsx
+++ b/util/test_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -90,9 +90,6 @@
   <si>
     <t>payment001</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户姓名：赵强，发起时间：2020-07-10 00:00:00,2020-07-17 00:00:00</t>
   </si>
   <si>
     <t>用户姓名：马平，发起时间：2021-01-09 00:00:00,2021-01-15 23:59:59</t>
@@ -428,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -593,10 +590,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
         <v>19</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
